--- a/EL SALVADOR/SEXO-RANGOEDAD-DEPTO.xlsx
+++ b/EL SALVADOR/SEXO-RANGOEDAD-DEPTO.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\EL SALVADOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DDAF6B4-4174-49A9-8860-061586D07F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CCEDC4B9-DDAC-4EAB-9C23-D0C31D563B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SEXO-RANGOEDAD-DEPTO (og)" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sexo-RangoEdad-Depto" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="45">
   <si>
     <t>SEXO-RANGOEDAD-DEPTO</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>MUJER</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
   </si>
 </sst>
 </file>
@@ -45320,7 +45323,7 @@
   <tableColumns count="4">
     <tableColumn id="1" name="SEXO" dataDxfId="5"/>
     <tableColumn id="2" name="GRUPO DE 5 ANIOS" dataDxfId="4"/>
-    <tableColumn id="3" name="P07B - DEPARTAMENTO - MUNICIPIO.DM" dataDxfId="3"/>
+    <tableColumn id="3" name="DEPARTAMENTO" dataDxfId="3"/>
     <tableColumn id="4" name="POBLACION" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -52570,7 +52573,7 @@
   <dimension ref="A3:D633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52588,7 +52591,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>4</v>
